--- a/www/terminologies/ValueSet-jdv-health-status-code-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-health-status-code-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103857</t>
+    <t>20250624152100</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:57+01:00</t>
+    <t>2025-06-24T15:21:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-health-status-code-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-health-status-code-cisis.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152100</t>
+    <t>20251028115833</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:21:00+01:00</t>
+    <t>2025-10-28T11:58:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,10 +99,16 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>102499006</t>
-  </si>
-  <si>
-    <t>en forme</t>
+    <t>81323004</t>
+  </si>
+  <si>
+    <t>fonction corporelle générale : normale</t>
+  </si>
+  <si>
+    <t>765205004</t>
+  </si>
+  <si>
+    <t>pathologie en rémission</t>
   </si>
   <si>
     <t>27624003</t>
@@ -123,10 +129,10 @@
     <t>incapacité : sévère</t>
   </si>
   <si>
-    <t>419620001</t>
-  </si>
-  <si>
-    <t>mort</t>
+    <t>419099009</t>
+  </si>
+  <si>
+    <t>mort(e)</t>
   </si>
   <si>
     <t>21134002</t>
@@ -135,7 +141,7 @@
     <t>incapacité</t>
   </si>
   <si>
-    <t>84387000</t>
+    <t>162467007</t>
   </si>
   <si>
     <t>asymptomatique</t>
@@ -414,7 +420,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -493,15 +499,23 @@
         <v>42</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/www/terminologies/ValueSet-jdv-health-status-code-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-health-status-code-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20251028115833</t>
+    <t>20251216141839</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:58:33+01:00</t>
+    <t>2025-12-16T14:18:39+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
